--- a/ShortTimeTests/datas/testData.xlsx
+++ b/ShortTimeTests/datas/testData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VsCode\Github\CellScript\ShortTimeTests\datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VsCode\Workspace\CellScript\ShortTimeTests\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5E1B29-0032-46E3-90AF-C0FC22E61A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE860804-B20B-449C-9A53-A86D181DE6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FillEmptyUp" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="FillEmptyUp" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="97">
   <si>
     <t>PICTURE</t>
   </si>
@@ -301,6 +302,26 @@
   </si>
   <si>
     <t>REN11SB17180UN</t>
+  </si>
+  <si>
+    <t>Art</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aot-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -360,6 +381,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FA2ACCF-6189-47F5-8D45-04BD32E69996}" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0">
+  <autoFilter ref="A1:C6" xr:uid="{8FA2ACCF-6189-47F5-8D45-04BD32E69996}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{A23DE071-6EA2-49BB-9885-30C680BEF517}" name="Art"/>
+    <tableColumn id="2" xr3:uid="{6CD1895F-C851-4969-8208-24CDC06A8DE8}" name="Color"/>
+    <tableColumn id="3" xr3:uid="{D35D52F4-1688-435D-BFB8-780AC0C37D18}" name="Size"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -624,11 +657,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BF126F-EA4B-4E42-8D6F-5092BF56D9C1}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="136" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AA50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
